--- a/Verify_comm_preprocc.xlsx
+++ b/Verify_comm_preprocc.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,15 +424,10 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>i</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
-        <is>
-          <t>Spending Time</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
         <is>
           <t>Verification Time</t>
         </is>
@@ -440,115 +435,126 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="B2" t="n">
-        <v>594.3565000000001</v>
+        <v>1.036894</v>
       </c>
       <c r="C2" t="n">
-        <v>616.9350000000001</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>110</v>
       </c>
       <c r="B3" t="n">
-        <v>603.0947</v>
+        <v>0.9888710000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>566.1002999999999</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="B4" t="n">
-        <v>966.019</v>
+        <v>0.981152</v>
       </c>
       <c r="C4" t="n">
-        <v>696.4263</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>130</v>
       </c>
       <c r="B5" t="n">
-        <v>875.4011999999999</v>
+        <v>0.983279</v>
       </c>
       <c r="C5" t="n">
-        <v>655.1475</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>140</v>
       </c>
       <c r="B6" t="n">
-        <v>935.8402</v>
+        <v>0.974452</v>
       </c>
       <c r="C6" t="n">
-        <v>588.4564000000001</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>150</v>
       </c>
       <c r="B7" t="n">
-        <v>1162.0838</v>
+        <v>0.982006</v>
       </c>
       <c r="C7" t="n">
-        <v>738.8842000000001</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7</v>
+        <v>160</v>
       </c>
       <c r="B8" t="n">
-        <v>1037.8392</v>
+        <v>0.982727</v>
       </c>
       <c r="C8" t="n">
-        <v>649.9135000000001</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>170</v>
       </c>
       <c r="B9" t="n">
-        <v>1130.3869</v>
+        <v>0.988359</v>
       </c>
       <c r="C9" t="n">
-        <v>648.3462000000001</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9</v>
+        <v>180</v>
       </c>
       <c r="B10" t="n">
-        <v>1203.2892</v>
+        <v>1.066227</v>
       </c>
       <c r="C10" t="n">
-        <v>685.8849000000001</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>10</v>
+        <v>190</v>
       </c>
       <c r="B11" t="n">
-        <v>1422.7474</v>
+        <v>1.023915</v>
       </c>
       <c r="C11" t="n">
-        <v>777.1324</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>200</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.9973959999999999</v>
+      </c>
+      <c r="C12" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>